--- a/services-howto-v9.0.xlsx
+++ b/services-howto-v9.0.xlsx
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
